--- a/Screen-detail (1).xlsx
+++ b/Screen-detail (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuyen nganh\SWP391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A933738B-EBFB-47BC-BD7B-0416C44F4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602D992-F3F4-4DD4-9B54-AD2FD6D4104F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07E3085A-4D3C-47EB-BDFF-BC686D618F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Function/Screen</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Promotion detail</t>
   </si>
   <si>
-    <t>Dental Clinic detail</t>
-  </si>
-  <si>
     <t>User login</t>
   </si>
   <si>
@@ -113,20 +110,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Show slider, top rate services and dentists, brief clinic's information, navbar with buttons redirect to other page.
-+ Show slider information includes image and title (about services/dentist/clinic/sale). 
-+ Show service information includes name, price, brief introduction, rate and d a button redirect user to complete service information
-+ Show dentist information includes name, brief introduction, rate and  a button redirect user to complete clinic information
-+ Show brief clinic's information includes name, best achievement, time open close clinic and a button redirect user to complete clinic information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show Clinic Name + All achivement + Rating + full introduction + image ( about staffs, dentists, rooms), contact information </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show customer profile ( user name, age, address,  phone number, Email ) and all this attribute can be editable 
-with a button + colorful background </t>
-  </si>
-  <si>
     <t>Dentist dashboard</t>
   </si>
   <si>
@@ -142,9 +125,6 @@
     <t>Appointments detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Show appointment detail ( meeting date, time, service name, service ID, customer name, customer ID, status ) </t>
-  </si>
-  <si>
     <t>Manager dashboard</t>
   </si>
   <si>
@@ -163,9 +143,6 @@
     <t>Dentist list</t>
   </si>
   <si>
-    <t>Income / profit of the clinic</t>
-  </si>
-  <si>
     <t>Service list</t>
   </si>
   <si>
@@ -184,21 +161,6 @@
     <t xml:space="preserve">Appointment detail </t>
   </si>
   <si>
-    <t>Show detail of user including full name, address, phone number, number of visits, gender, last visit, symptomatic status</t>
-  </si>
-  <si>
-    <t>Search bar with Fullname, last visit</t>
-  </si>
-  <si>
-    <t>Search bar with Fullname of dentist, number of cures</t>
-  </si>
-  <si>
-    <t>Show detail of user including full name, address, last case, list of feedback, gender, qualification</t>
-  </si>
-  <si>
-    <t>show table of profit including total amount earning by day, by month, year</t>
-  </si>
-  <si>
     <t>Show list of service including name of service, number of customer have used service</t>
   </si>
   <si>
@@ -206,10 +168,6 @@
   </si>
   <si>
     <t>Show promotion detail ( promotion ID , service ID, discount percentage, expired date, using date), complete introduction.</t>
-  </si>
-  <si>
-    <t>Search bar with name, discount percentage, between activation and expired time fileter
-+Shown all promotion include brief introduction, discount percentage and a button redirect user to complete promotion information.</t>
   </si>
   <si>
     <t>Search bar with name, price, rate filter 
@@ -230,11 +188,6 @@
 Invalid: show reason message </t>
   </si>
   <si>
-    <t xml:space="preserve">Show register account form includes customer ID , password, role, user name, age, address, phone number, email 
-+ submit button which will create new account if no error occur 
-+  message ( success or error )   </t>
-  </si>
-  <si>
     <t>Show input email or phone depend on customer selection 
 + submit button which will send the authenticatioin message 
 + message ( error or success in sending the authentication message include new password to phone number / email  )</t>
@@ -265,7 +218,50 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome message ( user name ) 
+    <t>Search bar with meeting date  fileter 
++ Show all appointment include time, meeting date, service name.</t>
+  </si>
+  <si>
+    <t>Show slider, top rate services and dentists, brief clinic's information, navbar with buttons redirect to other page.
++ Show slider information includes image and title (about services/dentist/clinic/sale). 
++ Show service information includes, image, name, price, brief introduction, click image will  redirect user to complete service information
++ Show dentist information includes name, brief introduction, rate and  a button redirect user to complete clinic information
++ Show brief clinic's information includes name, best achievement, time open close clinic and a button redirect user to complete clinic information</t>
+  </si>
+  <si>
+    <t>thêm promotion detail vào sql server</t>
+  </si>
+  <si>
+    <t>Search bar with name
++ Filter with service name, discount percentage, between activation and expired time 
++ Shown all promotion include brief introduction, discount percentage and a button redirect user to complete promotion information.</t>
+  </si>
+  <si>
+    <t>Welcome message ( personal name ) 
++ show navbar with buttons redirect to all manager accessible pages 
++ coloful background 
++ show table, graphic about the profit of clinic in day or month or year 
++ show top 3 services and dentists ( judging by rating and pick rate )
++ show top 3 customer ( judging by spending )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show register account form includes customer ID , user name, password, role, personal name, age, address, phone number, email 
++ submit button which will create new account if no error occur 
++  message ( success or error )   </t>
+  </si>
+  <si>
+    <t>Welcome message ( person name ) 
++ navbar with buttons redirect to all customer accessible pages 
++ coloful background 
++ up coming appointment or changing in appointment reminder message 
++ recommend some top rate service , sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show customer profile ( personal name, age, address,  phone number, Email ) and all this attribute can be editable with a button 
++ colorful background </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome message ( personal name ) 
 + show rating 
 + show navbar with buttons redirect to all dentist accessible pages 
 + coloful background 
@@ -274,33 +270,33 @@
 </t>
   </si>
   <si>
-    <t>Search bar with meeting date  fileter 
-+ Show all appointment include time, meeting date, service name.</t>
-  </si>
-  <si>
-    <t>Welcome message ( user name ) 
-+ navbar with buttons redirect to all customer accessible pages 
-+ coloful background 
-+ up coming appointment or changing in appointment reminder message 
-+ recommend some top rate service , sale</t>
-  </si>
-  <si>
-    <t>Management dashboards may include graphs, images, tables, numeric data, and data from case studies, or a combination of these elements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome message ( user name ) 
-+ show navbar with buttons redirect to all manager accessible pages 
-+ coloful background 
-+ show table, graphic about the profit of clinic in day or month or year 
-+ show top 5 service and dentist ( judging by rating point and pick rate )
-+ </t>
+    <t>Show appointment detail(meeting date, time, service name, service ID, customer name, customerID,status )</t>
+  </si>
+  <si>
+    <t>Search bar with personal name, age  filter
++ Show all customer includes personal name, age, phone number</t>
+  </si>
+  <si>
+    <t>Show Customer (customer ID, personal name, age, address, phone number, Email) 
++ Show customer detail ( customer ID, personal name, age, address, phone number, Email )
++ Ban button ( list the user account to backlist)</t>
+  </si>
+  <si>
+    <t>Search bar with personal name, age, rating  filter
++ Show all customer includes dentist ID, personal name, age, rate</t>
+  </si>
+  <si>
+    <t>Show dentist detail ( dentist ID, personal name, age, rate ) 
++ some top good feedback ( high rating )
++ some bad feedback ( low rating )
++ delete account button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,13 +308,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,40 +664,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FAC205-8EFD-46BB-AFDB-14A75F955239}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" style="3"/>
-    <col min="6" max="6" width="92.6640625" customWidth="1"/>
+    <col min="6" max="6" width="93.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -719,15 +706,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -735,13 +722,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -749,44 +739,44 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -794,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -808,13 +798,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -822,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -839,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -850,13 +840,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -864,13 +854,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -878,13 +868,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -892,13 +882,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -906,13 +896,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -920,10 +907,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -931,215 +919,208 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>39</v>
+      <c r="B27" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
+      <c r="B30" t="s">
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1147,39 +1128,17 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
